--- a/biology/Botanique/Vin_de_pays/Vin_de_pays.xlsx
+++ b/biology/Botanique/Vin_de_pays/Vin_de_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vin de pays (VDP) était un vin correspondant à une dénomination vinicole française (et non une appellation) créée en 1968, à dessein de valoriser les importantes productions qui n'étaient concernées par aucune appellation d'origine. Le code rural et de la pêche maritime précisait que pour bénéficier de la mention « vin de pays », un vin devait répondre à des conditions de production, fixant, notamment, un rendement maximum, un titre alcoométrique minimum, des règles d'encépagement, la provenance des raisins servant à produire le vin et des règles analytiques strictes.
 À ne pas confondre avec le faux-ami anglais country wine qui est une boisson fermentée de fruits (prunes par exemple), mais qui ne contient pas de raisin.
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins de pays sont créés par le décret du 13 septembre 1968, qui distinguait des vins de pays de département et des vins de pays de zone (le plus souvent plus petite qu'un département, mais parfois de la taille de plusieurs départements). Le zonage concernait l'ensemble de la surface d'une unité administrative (commune, canton ou département), et non des parcelles (comme c'est le cas pour les AOC). L'ensemble des conditions de production des vins de pays de département ont été insérées dans ce décret tandis que chaque vin de pays de zone bénéficiait d'un décret spécifique précisant sa zone de production et, le cas échéant, des conditions de productions plus restrictives que le décret général de 1968.
 Le dernier décret général concernant les vins de pays était celui du 1er septembre 2000 qui fixait les conditions de production.
-Entre le 1er août 2009 et le 31 décembre 2011, chaque vin de pays a continué à bénéficier de son statut tout en ayant la possibilité d'être transformé en vin sous IGP[1]. Un cahier des charges a alors du être soumis à l'INAO pour ce vin. Ce cahier des charges reprend une partie des éléments figurant dans l'ancien décret concernant ce vin (zone géographique de production, encépagement, règles analytiques, rendement maximum de production), un argumentaire de l'interaction entre les caractéristiques du vin et son origine géographique ainsi que les organismes tiers et indépendants qui contrôlent le bon respect du cahier des charges.
+Entre le 1er août 2009 et le 31 décembre 2011, chaque vin de pays a continué à bénéficier de son statut tout en ayant la possibilité d'être transformé en vin sous IGP. Un cahier des charges a alors du être soumis à l'INAO pour ce vin. Ce cahier des charges reprend une partie des éléments figurant dans l'ancien décret concernant ce vin (zone géographique de production, encépagement, règles analytiques, rendement maximum de production), un argumentaire de l'interaction entre les caractéristiques du vin et son origine géographique ainsi que les organismes tiers et indépendants qui contrôlent le bon respect du cahier des charges.
 Le décret du 1er septembre 2000 et ceux relatifs à chaque vin de pays ont été abrogés en novembre 2011.
 Sur 152 vins de pays existants avant 2012, seuls 75 ont été transformés vins sous IGP. Certains anciens vins de pays sont devenus des mentions d'étiquetage complétant le nom de l'indication géographique (exemple: Indication géographique Aude-Coteaux de Miramont). C’est dans la catégorie des IGP que l’on trouve de nombreux vins mono-cépage.
 </t>
@@ -548,7 +562,9 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de pays était un vin de table (au sens européen) désigné par une indication géographique. Le décret général du 1er septembre 2000 dans sa dernière version et la réglementation européenne indiquaient les conditions requises pour obtenir la mention vin de pays :
 rendement inférieur à 120 hectolitres par hectare pour les vins blancs, rouges et rosés.
@@ -585,7 +601,9 @@
           <t>Régionaux, départementaux et de zone</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant 2012, il existait 152 vins de pays, hiérarchisés en trois niveaux de dénominations (régionale, départementale et de zone) :
 six vins de pays à dénomination régionale :
@@ -598,7 +616,7 @@
 53 vins de pays à dénomination départementale, tels pays-d'hérault, var ou bouches-du-rhône ;
 93 vins de pays à dénomination de zone, tels coteaux-de-peyriac, coteaux-de-miramont ou côtes-de-gascogne.
 Cette ancienne hiérarchisation des vins de pays a parfois conduit à hiérarchiser les vins sous IGP de la même manière. Toutefois, aucune hiérarchisation officielle des vins sous IGP n'a jamais existé.
-Les vins de pays représentaient un quart de la production française en volume (entre 25 et 30 % selon les années). Le Languedoc-Roussillon était la région produisant le plus de vins de pays (70 % de la production française de vins de pays en 2003, 85 % en 2009[2]) et comptait 58 dénominations, dont 1 régionale, 4 départementales et 53 de zone.
+Les vins de pays représentaient un quart de la production française en volume (entre 25 et 30 % selon les années). Le Languedoc-Roussillon était la région produisant le plus de vins de pays (70 % de la production française de vins de pays en 2003, 85 % en 2009) et comptait 58 dénominations, dont 1 régionale, 4 départementales et 53 de zone.
 </t>
         </is>
       </c>
@@ -627,43 +645,391 @@
           <t>Liste d'anciens vins de pays</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les vins de pays sont classées ci-dessous par anciennes régions administratives[3].
-Aquitaine
-agenais
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de pays sont classées ci-dessous par anciennes régions administratives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aquitaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>agenais
 atlantique
 comté-tolosan suivie ou non de la mention géographique Pyrénées Atlantiques
 landes suivie ou non d'une des mentions géographiques suivantes : Coteaux de Chalosse, Côtes de l'Adour, Sables de l'Océan, Sables fauves
 périgord suivie ou non d'une des mentions géographiques suivantes : Dordogne, Vin de Domme
-thézac-perricard
-Auvergne
-val-de-loire suivie ou non de la mention géographique Allier
+thézac-perricard</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>val-de-loire suivie ou non de la mention géographique Allier
 puy-de-dôme
-comté-tolosan suivie ou non de la mention géographique Cantal
-Basse-Normandie
-calvados suivie ou non de la mention géographique Grisy
-Bourgogne
-Coteaux-de-l'auxois
+comté-tolosan suivie ou non de la mention géographique Cantal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>calvados suivie ou non de la mention géographique Grisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'auxois
 Coteaux-de-tannay
 Côtes-de-la-charité
 Sainte-marie-la-blanche
 saône-et-loire
 val-de-loire suivie ou non de la mention géographique Nièvre
-Yonne
-Centre
-coteaux-du-cher-et-de-l'arnon
-val-de-loire suivie ou non d'une des mentions géographiques suivantes : Cher, Indre, Indre et Loire, Loir et Cher, Loiret
-Champagne-Ardenne
-coteaux-de-coiffy
-haute-marne
-Corse
-île-de-beauté
-Franche-Comté
-franche-comté suivie ou non d'une des mentions géographiques suivantes : Buffard, Coteaux de Champlitte, Doubs, Gy, Haute-Saône, Hugier, Motey-Besuche, Offlanges, Vuillafans
-Languedoc-Roussillon
-pays-d'oc
-Département de l'Aude
+Yonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Centre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>coteaux-du-cher-et-de-l'arnon
+val-de-loire suivie ou non d'une des mentions géographiques suivantes : Cher, Indre, Indre et Loire, Loir et Cher, Loiret</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>coteaux-de-coiffy
+haute-marne</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>île-de-beauté</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>franche-comté suivie ou non d'une des mentions géographiques suivantes : Buffard, Coteaux de Champlitte, Doubs, Gy, Haute-Saône, Hugier, Motey-Besuche, Offlanges, Vuillafans</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>pays-d'oc</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Département de l'Aude</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			IGP Aude rosé
 			IGP Coteaux-du-littoral-audois
 			IGP Cité-de-carcassonne
@@ -677,8 +1043,47 @@
 haute-vallée-de-l'aude
 pays-cathare (ex IGP cathare)
 vallée-du-torgan
-vallée-du-paradis
-Département de l'Hérault
+vallée-du-paradis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Département de l'Hérault</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Coteaux-d'enserune blanc
 			Mas de Daumas Gassac, pays de l'Hérault
 coteaux-d'ensérune
@@ -688,47 +1093,329 @@
 haute-vallée-de-l'orb
 pays-d'hérault suivi ou non d'une des mentions géographiques suivantes : Bénovie, Bérange, Cassan, Cessenon, Collines de la Moure, Coteaux de Bessilles, Coteaux de Fontcaude, Coteaux de Laurens, Coteaux de Murviel, Coteaux du Salagou, Côtes du Brian, Côtes du Ceressou, Mont Baudile, Mont de la Grage, Pays de Bessan, Pays de Caux
 saint-guilhem-le-désert (ex Vin de pays des gorges de l'Hérault)
-vicomté-d'aumelas suivie ou non de la mention géographique Vallée Dorée
-Département du Gard
+vicomté-d'aumelas suivie ou non de la mention géographique Vallée Dorée</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Département du Gard</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Vin de pays des Cévennes
 			Vin de pays du Gard blanc
 			Sable-de-camargue rosé
 cévennes
 coteaux-du-pont-du-gard
 gard
-sable-de-camargue (ex IGP Sables du Golfe du Lion)
-Département des Pyrénées-Orientales
+sable-de-camargue (ex IGP Sables du Golfe du Lion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Département des Pyrénées-Orientales</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Côtes-catalanes de l'abbaye Saint-Michel-de-Cuxa
 Pyrénées-orientales (IGP)
 côtes-catalanes suivie ou non de la mention géographique Pyrénées-orientales (IGP)
-côte-vermeille
-Limousin
-Corrèze (IGP)
+côte-vermeille</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Limousin</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Corrèze (IGP)
 Haute-vienne (IGP)
-Vin paillé
-Lorraine
-côtes-de-meuse
-Midi-Pyrénées
-ariège suivie ou non d'une des mentions géographiques suivantes : Coteaux de la Lèze, Coteaux du Plantaurel
+Vin paillé</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lorraine</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>côtes-de-meuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ariège suivie ou non d'une des mentions géographiques suivantes : Coteaux de la Lèze, Coteaux du Plantaurel
 aveyron
 comté-tolosan suivie ou non d'une des mentions géographiques suivantes : Bigorre, Coteaux et Terrasses de Montauban, Haute-Garonne, Tarn et Garonne
 coteaux-de-glanes
 côtes-de-gascogne suivie ou non de la mention géographique Condomois
 côtes-du-tarn
 gers
-lot devenue IGP Côtes du Lot
-Pays de la Loire
-val-de-loire suivie ou non d'une des mentions géographiques suivantes : Marches de Bretagne ou Pays de Retz.
+lot devenue IGP Côtes du Lot</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>val-de-loire suivie ou non d'une des mentions géographiques suivantes : Marches de Bretagne ou Pays de Retz.
 Maine-et-loire
 Deux-sèvres
 Indre-et-loire
-Vienne
-Poitou-Charentes
-atlantique
+Vienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Poitou-Charentes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>atlantique
 charentais suivie ou non d'une des mentions géographiques suivantes : Charente, Charente-Maritime, Île de Ré, Île d'Oléron, Saint-Sornin
-val-de-loire suivie ou non de la mention géographique Vienne
-Provence-Côte d'Azur
-alpes-de-haute-provence
+val-de-loire suivie ou non de la mention géographique Vienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Provence-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>alpes-de-haute-provence
 alpes-maritimes
 alpilles
 bouches-du-rhône suivie ou non de la mention géographique Terre de Camargue
@@ -737,9 +1424,43 @@
 méditerranée
 mont-caume
 var suivie ou non d'une des mentions géographiques suivantes : Argens, Coteaux du Verdon, Sainte Baume
-vaucluse suivie ou non d'une des mentions géographiques suivantes : Pays d'Aigues (IGP), Principauté d'Orange (IGP)
-Rhône-Alpes
-Coteaux-de-l'ain ex Vin de pays des Coteaux de l'Ain
+vaucluse suivie ou non d'une des mentions géographiques suivantes : Pays d'Aigues (IGP), Principauté d'Orange (IGP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Coteaux-de-l'ain ex Vin de pays des Coteaux de l'Ain
 Vin des Allobroges ex Vin de pays des Allobroges
 ardèche suivie ou non de la mention géographique Coteaux-de-l'ardèche
 collines-rhodaniennes
@@ -749,9 +1470,43 @@
 isère suivie ou non d'une des mentions géographiques suivantes : Balmes dauphinoises, Coteaux-du-grésivaudan
 méditerranée suivie ou non d'une des mentions géographiques suivantes : Comté de Grignan, Coteaux de Montélimar
 urfé (département de la Loire)
-Vin de Pays des Gaules (sur l'aire de production du beaujolais (AOC)). Sa dénomination jugée vague a été attaquée auprès des instances européennes[4] et ne sera pas reprise en IGP.
-Val-de-Loire
-val-de-loire
+Vin de Pays des Gaules (sur l'aire de production du beaujolais (AOC)). Sa dénomination jugée vague a été attaquée auprès des instances européennes et ne sera pas reprise en IGP.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_de_pays</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste d'anciens vins de pays</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Val-de-Loire</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>val-de-loire
 allier
 bourbonnais
 cher
